--- a/paper/tables/tables.xlsx
+++ b/paper/tables/tables.xlsx
@@ -586,7 +586,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sum of co-morbidities</t>
+          <t>Number of co-morbidities</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -654,20 +654,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pre-CoV depression/anxiety</t>
+          <t>Depression/anxiety before COVID-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>no: 94% (1088)
-yes: 5.96% (69) 
+          <t>5.96% (69) 
 n = 1157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no: 95.4% (852)
-yes: 4.59% (41) 
+          <t>4.59% (41) 
 n = 893</t>
         </is>
       </c>
@@ -685,20 +683,18 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pre-CoV sleep disorders</t>
+          <t>Sleep disorders before COVID-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>no: 95.4% (1104)
-yes: 4.58% (53) 
+          <t>4.58% (53) 
 n = 1157</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no: 96% (857)
-yes: 4.03% (36) 
+          <t>4.03% (36) 
 n = 893</t>
         </is>
       </c>
@@ -721,15 +717,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>no: 92.8% (1074)
-yes: 7.17% (83) 
+          <t>7.17% (83) 
 n = 1157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no: 94.7% (846)
-yes: 5.26% (47) 
+          <t>5.26% (47) 
 n = 893</t>
         </is>
       </c>
@@ -785,15 +779,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>no: 88.8% (1027)
-yes: 11.2% (130) 
+          <t>11.2% (130) 
 n = 1157</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no: 90.6% (809)
-yes: 9.41% (84) 
+          <t>9.41% (84) 
 n = 893</t>
         </is>
       </c>
@@ -816,15 +808,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>no: 97.1% (1123)
-yes: 2.94% (34) 
+          <t>2.94% (34) 
 n = 1157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no: 97.1% (867)
-yes: 2.91% (26) 
+          <t>2.91% (26) 
 n = 893</t>
         </is>
       </c>
@@ -847,15 +837,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>no: 95.9% (1109)
-yes: 4.15% (48) 
+          <t>4.15% (48) 
 n = 1157</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no: 97.4% (870)
-yes: 2.58% (23) 
+          <t>2.58% (23) 
 n = 893</t>
         </is>
       </c>
@@ -878,15 +866,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>no: 82% (949)
-yes: 18% (208) 
+          <t>18% (208) 
 n = 1157</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no: 88.6% (791)
-yes: 11.4% (102) 
+          <t>11.4% (102) 
 n = 893</t>
         </is>
       </c>
@@ -949,15 +935,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>no: 8.3% (96)
-yes: 91.7% (1060) 
+          <t>91.7% (1060) 
 n = 1156</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no: 12.3% (110)
-yes: 87.7% (782) 
+          <t>87.7% (782) 
 n = 892</t>
         </is>
       </c>
@@ -975,7 +959,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t># acute symptoms</t>
+          <t>Number of acute symptoms</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1006,7 +990,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t># acute NC</t>
+          <t>Number of acute neurocognitive symptoms</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1037,7 +1021,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t># acute NC</t>
+          <t>Number of acute neurocognitive symptoms</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1077,15 +1061,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>no: 52.4% (606)
-yes: 47.6% (550) 
+          <t>47.6% (550) 
 n = 1156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no: 50.7% (452)
-yes: 49.3% (440) 
+          <t>49.3% (440) 
 n = 892</t>
         </is>
       </c>
@@ -1103,7 +1085,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t># persistent symptoms</t>
+          <t>Number of persistent symptoms</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1134,7 +1116,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t># persist. NC</t>
+          <t>Number of persistent neurocognitive symptoms</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1165,7 +1147,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t># persist. NC</t>
+          <t>Number of persistent neurocognitive symptoms</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1204,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1240,10 +1222,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OMH score</t>
+          <t>Overall Mental Health</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>poor: 3.46% (40)
+fair: 18.3% (212)
+good: 48.6% (562)
+excellent: 29.6% (343) 
+n = 1157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>poor: 2.91% (26)
+fair: 21.2% (189)
+good: 48.2% (430)
+excellent: 27.8% (248) 
+n = 893</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Overall Mental Health Score</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>mean(SD) = 0.956 (0.785)
 median(IQR) = 1 (0 - 1)
@@ -1251,7 +1268,7 @@
 n = 1157</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>mean(SD) = 0.992 (0.779)
 median(IQR) = 1 (0 - 1)
@@ -1259,24 +1276,59 @@
 n = 893</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>QoL score</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Quality of Life</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>poor: 4.32% (50)
+fair: 16% (185)
+good: 51% (590)
+excellent: 28.7% (332) 
+n = 1157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>poor: 3.36% (30)
+fair: 22.5% (201)
+good: 54.3% (485)
+excellent: 19.8% (177) 
+n = 893</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>p = 8.3e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Quality of Life Score</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>mean(SD) = 0.959 (0.787)
 median(IQR) = 1 (0 - 1)
@@ -1284,7 +1336,7 @@
 n = 1157</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mean(SD) = 1.09 (0.741)
 median(IQR) = 1 (1 - 2)
@@ -1292,24 +1344,24 @@
 n = 893</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>p = 2.6e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>p = 2.1e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>DPR score</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>mean(SD) = 1.39 (1.58)
 median(IQR) = 1 (0 - 2)
@@ -1317,7 +1369,7 @@
 n = 1154</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>mean(SD) = 1.61 (1.68)
 median(IQR) = 1 (0 - 2)
@@ -1325,55 +1377,53 @@
 n = 892</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>p = 0.0073</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DPR+</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>no: 82.7% (954)
-yes: 17.3% (200) 
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>p = 0.0076</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Depression Screening-positive</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17.3% (200) 
 n = 1154</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>no: 76.8% (685)
-yes: 23.2% (207) 
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23.2% (207) 
 n = 892</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Chi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>p = 0.0023</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ANX score</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anxiety score</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>mean(SD) = 0.949 (1.33)
 median(IQR) = 0 (0 - 2)
@@ -1381,7 +1431,7 @@
 n = 1151</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>mean(SD) = 1.35 (1.57)
 median(IQR) = 1 (0 - 2)
@@ -1389,55 +1439,53 @@
 n = 893</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>p = 4.1e-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ANX+</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>no: 87.6% (1008)
-yes: 12.4% (143) 
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p = 5.2e-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Anxiety Screening-positive</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12.4% (143) 
 n = 1151</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>no: 80.7% (721)
-yes: 19.3% (172) 
-n = 893</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Chi</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>p = 7.6e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Stress score</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19.3% (172) 
+n = 893</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>p = 7.1e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Psychosocial Stress Score</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>mean(SD) = 4.28 (3.53)
 median(IQR) = 4 (2 - 6)
@@ -1445,7 +1493,7 @@
 n = 1153</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>mean(SD) = 4.4 (3.54)
 median(IQR) = 4 (2 - 7)
@@ -1453,45 +1501,43 @@
 n = 890</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>U</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Substantial psychosocial stress</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>no: 78.7% (907)
-yes: 21.3% (246) 
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21.3% (246) 
 n = 1153</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>no: 74.4% (662)
-yes: 25.6% (228) 
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>25.6% (228) 
 n = 890</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Chi</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>p = 0.035</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>p = 0.038</t>
         </is>
       </c>
     </row>

--- a/paper/tables/tables.xlsx
+++ b/paper/tables/tables.xlsx
@@ -499,6 +499,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>secondary: 64.5% (575)
+apprenticeship: 0% (0)
 elementary: 0.224% (2)
 tertiary: 35.3% (315) 
 n = 892</t>
